--- a/Crawler/google/google_topic.xlsx
+++ b/Crawler/google/google_topic.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="153">
   <si>
     <t xml:space="preserve">   THE TOP 15 WORDS FOR TOPIC #0</t>
   </si>
@@ -46,34 +46,214 @@
     <t xml:space="preserve">   THE TOP 15 WORDS FOR TOPIC #9</t>
   </si>
   <si>
-    <t>0                    performance</t>
+    <t>0                            use</t>
+  </si>
+  <si>
+    <t>1                    researchers</t>
+  </si>
+  <si>
+    <t>2                           like</t>
+  </si>
+  <si>
+    <t>3                          using</t>
+  </si>
+  <si>
+    <t>4                           team</t>
+  </si>
+  <si>
+    <t>5                         source</t>
+  </si>
+  <si>
+    <t>6                           work</t>
+  </si>
+  <si>
+    <t>7                         models</t>
+  </si>
+  <si>
+    <t>8                             ml</t>
+  </si>
+  <si>
+    <t>9                           open</t>
+  </si>
+  <si>
+    <t>10                           new</t>
+  </si>
+  <si>
+    <t>11                    tensorflow</t>
+  </si>
+  <si>
+    <t>12                      research</t>
+  </si>
+  <si>
+    <t>13                       machine</t>
+  </si>
+  <si>
+    <t>14                      learning</t>
+  </si>
+  <si>
+    <t>0                         people</t>
+  </si>
+  <si>
+    <t>1                           like</t>
+  </si>
+  <si>
+    <t>2                            use</t>
+  </si>
+  <si>
+    <t>3                          words</t>
+  </si>
+  <si>
+    <t>4                        example</t>
+  </si>
+  <si>
+    <t>5                        dataset</t>
+  </si>
+  <si>
+    <t>6                       research</t>
+  </si>
+  <si>
+    <t>7                    information</t>
+  </si>
+  <si>
+    <t>8                       language</t>
+  </si>
+  <si>
+    <t>9                          users</t>
+  </si>
+  <si>
+    <t>10                          text</t>
+  </si>
+  <si>
+    <t>11                          data</t>
+  </si>
+  <si>
+    <t>12                          user</t>
+  </si>
+  <si>
+    <t>13                           web</t>
+  </si>
+  <si>
+    <t>14                        search</t>
+  </si>
+  <si>
+    <t>0                            new</t>
+  </si>
+  <si>
+    <t>1                             ml</t>
+  </si>
+  <si>
+    <t>2                          large</t>
+  </si>
+  <si>
+    <t>3                          graph</t>
+  </si>
+  <si>
+    <t>4                           work</t>
+  </si>
+  <si>
+    <t>5                          based</t>
+  </si>
+  <si>
+    <t>6                        problem</t>
+  </si>
+  <si>
+    <t>7                          using</t>
+  </si>
+  <si>
+    <t>8                         number</t>
+  </si>
+  <si>
+    <t>9                           used</t>
+  </si>
+  <si>
+    <t>10                         model</t>
+  </si>
+  <si>
+    <t>11                     algorithm</t>
+  </si>
+  <si>
+    <t>12                          time</t>
+  </si>
+  <si>
+    <t>13                    algorithms</t>
+  </si>
+  <si>
+    <t>14                          data</t>
+  </si>
+  <si>
+    <t>0                           used</t>
+  </si>
+  <si>
+    <t>1                           left</t>
+  </si>
+  <si>
+    <t>2                     resolution</t>
+  </si>
+  <si>
+    <t>3                          right</t>
+  </si>
+  <si>
+    <t>4                        quality</t>
+  </si>
+  <si>
+    <t>5                           time</t>
+  </si>
+  <si>
+    <t>6                        objects</t>
+  </si>
+  <si>
+    <t>7                         visual</t>
+  </si>
+  <si>
+    <t>8                         videos</t>
+  </si>
+  <si>
+    <t>9                          using</t>
+  </si>
+  <si>
+    <t>10                         pixel</t>
+  </si>
+  <si>
+    <t>11                        camera</t>
+  </si>
+  <si>
+    <t>12                         video</t>
+  </si>
+  <si>
+    <t>13                        images</t>
+  </si>
+  <si>
+    <t>14                         image</t>
+  </si>
+  <si>
+    <t>0                      different</t>
   </si>
   <si>
     <t>1                          layer</t>
   </si>
   <si>
-    <t>2                     tensorflow</t>
-  </si>
-  <si>
-    <t>3                          using</t>
-  </si>
-  <si>
-    <t>4                      attention</t>
-  </si>
-  <si>
-    <t>5                         layers</t>
-  </si>
-  <si>
-    <t>6                       accuracy</t>
-  </si>
-  <si>
-    <t>7                       training</t>
-  </si>
-  <si>
-    <t>8                          input</t>
-  </si>
-  <si>
-    <t>9                   architecture</t>
+    <t>2                  architectures</t>
+  </si>
+  <si>
+    <t>3                    performance</t>
+  </si>
+  <si>
+    <t>4                         layers</t>
+  </si>
+  <si>
+    <t>5                         search</t>
+  </si>
+  <si>
+    <t>6                          image</t>
+  </si>
+  <si>
+    <t>7                       accuracy</t>
+  </si>
+  <si>
+    <t>8                   architecture</t>
+  </si>
+  <si>
+    <t>9                       training</t>
   </si>
   <si>
     <t>10                      networks</t>
@@ -82,391 +262,217 @@
     <t>11                        models</t>
   </si>
   <si>
-    <t>12                        neural</t>
+    <t>12                         model</t>
+  </si>
+  <si>
+    <t>13                        neural</t>
+  </si>
+  <si>
+    <t>14                       network</t>
+  </si>
+  <si>
+    <t>0                        faculty</t>
+  </si>
+  <si>
+    <t>1                          world</t>
+  </si>
+  <si>
+    <t>2                      computing</t>
+  </si>
+  <si>
+    <t>3                         online</t>
+  </si>
+  <si>
+    <t>4                           year</t>
+  </si>
+  <si>
+    <t>5                     technology</t>
+  </si>
+  <si>
+    <t>6                           data</t>
+  </si>
+  <si>
+    <t>7                        program</t>
+  </si>
+  <si>
+    <t>8                         course</t>
+  </si>
+  <si>
+    <t>9                            new</t>
+  </si>
+  <si>
+    <t>10                       science</t>
+  </si>
+  <si>
+    <t>11                      students</t>
+  </si>
+  <si>
+    <t>12                      computer</t>
+  </si>
+  <si>
+    <t>13                    university</t>
+  </si>
+  <si>
+    <t>14                      research</t>
+  </si>
+  <si>
+    <t>0                          using</t>
+  </si>
+  <si>
+    <t>1                        quality</t>
+  </si>
+  <si>
+    <t>2                            end</t>
+  </si>
+  <si>
+    <t>3                        trained</t>
+  </si>
+  <si>
+    <t>4                           time</t>
+  </si>
+  <si>
+    <t>5                         device</t>
+  </si>
+  <si>
+    <t>7                          input</t>
+  </si>
+  <si>
+    <t>8                    recognition</t>
+  </si>
+  <si>
+    <t>11                         audio</t>
+  </si>
+  <si>
+    <t>12                        models</t>
+  </si>
+  <si>
+    <t>13                        speech</t>
+  </si>
+  <si>
+    <t>14                         model</t>
+  </si>
+  <si>
+    <t>0                  reinforcement</t>
+  </si>
+  <si>
+    <t>1                           wang</t>
+  </si>
+  <si>
+    <t>2                       networks</t>
+  </si>
+  <si>
+    <t>3                          zhang</t>
+  </si>
+  <si>
+    <t>4                     conference</t>
+  </si>
+  <si>
+    <t>5                          david</t>
+  </si>
+  <si>
+    <t>6                       workshop</t>
+  </si>
+  <si>
+    <t>7                       research</t>
+  </si>
+  <si>
+    <t>8                             li</t>
+  </si>
+  <si>
+    <t>9                           chen</t>
+  </si>
+  <si>
+    <t>10                          deep</t>
+  </si>
+  <si>
+    <t>11                        neural</t>
+  </si>
+  <si>
+    <t>12                       machine</t>
+  </si>
+  <si>
+    <t>13                       include</t>
+  </si>
+  <si>
+    <t>0                       datasets</t>
+  </si>
+  <si>
+    <t>1                            pre</t>
+  </si>
+  <si>
+    <t>2                          using</t>
+  </si>
+  <si>
+    <t>4                           real</t>
+  </si>
+  <si>
+    <t>5                          world</t>
+  </si>
+  <si>
+    <t>6                    performance</t>
+  </si>
+  <si>
+    <t>8                        dataset</t>
+  </si>
+  <si>
+    <t>9                           task</t>
+  </si>
+  <si>
+    <t>10                          data</t>
+  </si>
+  <si>
+    <t>11                         tasks</t>
+  </si>
+  <si>
+    <t>12                      learning</t>
   </si>
   <si>
     <t>13                         model</t>
   </si>
   <si>
-    <t>14                       network</t>
-  </si>
-  <si>
-    <t>0                           used</t>
-  </si>
-  <si>
-    <t>1                           view</t>
-  </si>
-  <si>
-    <t>2                       research</t>
-  </si>
-  <si>
-    <t>3                         visual</t>
-  </si>
-  <si>
-    <t>4                         labels</t>
-  </si>
-  <si>
-    <t>5                          using</t>
-  </si>
-  <si>
-    <t>6                        content</t>
-  </si>
-  <si>
-    <t>7                          human</t>
-  </si>
-  <si>
-    <t>8                         images</t>
-  </si>
-  <si>
-    <t>9                       datasets</t>
-  </si>
-  <si>
-    <t>10                       objects</t>
-  </si>
-  <si>
-    <t>11                          data</t>
-  </si>
-  <si>
-    <t>12                        videos</t>
-  </si>
-  <si>
-    <t>13                       dataset</t>
-  </si>
-  <si>
-    <t>14                         video</t>
-  </si>
-  <si>
-    <t>0                       training</t>
-  </si>
-  <si>
-    <t>1                       semantic</t>
-  </si>
-  <si>
-    <t>2                      challenge</t>
-  </si>
-  <si>
-    <t>3                      detection</t>
-  </si>
-  <si>
-    <t>4                        objects</t>
-  </si>
-  <si>
-    <t>5                           task</t>
-  </si>
-  <si>
-    <t>6                         visual</t>
-  </si>
-  <si>
-    <t>7                        dataset</t>
-  </si>
-  <si>
-    <t>8                          model</t>
-  </si>
-  <si>
-    <t>9                          tasks</t>
-  </si>
-  <si>
-    <t>10                        vision</t>
-  </si>
-  <si>
-    <t>12                        object</t>
-  </si>
-  <si>
-    <t>13                        images</t>
-  </si>
-  <si>
-    <t>14                         image</t>
-  </si>
-  <si>
-    <t>0                          paper</t>
-  </si>
-  <si>
-    <t>1                         number</t>
-  </si>
-  <si>
-    <t>2                           used</t>
-  </si>
-  <si>
-    <t>4                      algorithm</t>
-  </si>
-  <si>
-    <t>5                            use</t>
-  </si>
-  <si>
-    <t>6                       research</t>
-  </si>
-  <si>
-    <t>7                            new</t>
-  </si>
-  <si>
-    <t>8                          graph</t>
-  </si>
-  <si>
-    <t>9                     algorithms</t>
-  </si>
-  <si>
-    <t>10                          time</t>
-  </si>
-  <si>
-    <t>12                         users</t>
-  </si>
-  <si>
-    <t>13                          user</t>
-  </si>
-  <si>
-    <t>14                        search</t>
-  </si>
-  <si>
-    <t>0                          right</t>
-  </si>
-  <si>
-    <t>1                         models</t>
-  </si>
-  <si>
-    <t>3                     resolution</t>
-  </si>
-  <si>
-    <t>4                           time</t>
-  </si>
-  <si>
-    <t>5                           high</t>
-  </si>
-  <si>
-    <t>6                        quality</t>
-  </si>
-  <si>
-    <t>7                             ml</t>
-  </si>
-  <si>
-    <t>8                          using</t>
-  </si>
-  <si>
-    <t>9                           data</t>
-  </si>
-  <si>
-    <t>10                         pixel</t>
-  </si>
-  <si>
-    <t>11                        camera</t>
-  </si>
-  <si>
-    <t>12                        images</t>
-  </si>
-  <si>
-    <t>13                         image</t>
-  </si>
-  <si>
-    <t>14                         model</t>
-  </si>
-  <si>
-    <t>0                       workshop</t>
-  </si>
-  <si>
-    <t>1                  reinforcement</t>
-  </si>
-  <si>
-    <t>2                          zhang</t>
-  </si>
-  <si>
-    <t>3                       networks</t>
-  </si>
-  <si>
-    <t>4                         models</t>
-  </si>
-  <si>
-    <t>5                          david</t>
-  </si>
-  <si>
-    <t>6                             li</t>
-  </si>
-  <si>
-    <t>7                     tensorflow</t>
-  </si>
-  <si>
-    <t>8                           chen</t>
-  </si>
-  <si>
-    <t>9                       research</t>
-  </si>
-  <si>
-    <t>10                        neural</t>
-  </si>
-  <si>
-    <t>11                          deep</t>
-  </si>
-  <si>
-    <t>12                       include</t>
-  </si>
-  <si>
-    <t>13                       machine</t>
-  </si>
-  <si>
-    <t>14                      learning</t>
-  </si>
-  <si>
-    <t>0                           test</t>
-  </si>
-  <si>
-    <t>1                           deep</t>
-  </si>
-  <si>
-    <t>2                      different</t>
-  </si>
-  <si>
-    <t>3                         models</t>
-  </si>
-  <si>
-    <t>4                        trained</t>
-  </si>
-  <si>
-    <t>5                          model</t>
-  </si>
-  <si>
-    <t>6                       datasets</t>
-  </si>
-  <si>
-    <t>7                     supervised</t>
-  </si>
-  <si>
-    <t>8                           loss</t>
-  </si>
-  <si>
-    <t>9                       examples</t>
-  </si>
-  <si>
-    <t>10                       dataset</t>
-  </si>
-  <si>
-    <t>11                   performance</t>
-  </si>
-  <si>
-    <t>12                      learning</t>
-  </si>
-  <si>
-    <t>13                          data</t>
-  </si>
-  <si>
     <t>14                      training</t>
   </si>
   <si>
-    <t>0                          using</t>
-  </si>
-  <si>
-    <t>1                       training</t>
-  </si>
-  <si>
-    <t>2                          input</t>
-  </si>
-  <si>
-    <t>3                        english</t>
-  </si>
-  <si>
-    <t>4                           data</t>
+    <t>0                           data</t>
+  </si>
+  <si>
+    <t>1                          using</t>
+  </si>
+  <si>
+    <t>2                        quality</t>
+  </si>
+  <si>
+    <t>4                          input</t>
   </si>
   <si>
     <t>5                           word</t>
   </si>
   <si>
-    <t>6                          audio</t>
-  </si>
-  <si>
-    <t>7                          words</t>
+    <t>6                        machine</t>
+  </si>
+  <si>
+    <t>7                          model</t>
   </si>
   <si>
     <t>8                         models</t>
   </si>
   <si>
-    <t>9                    translation</t>
-  </si>
-  <si>
-    <t>10                     languages</t>
-  </si>
-  <si>
-    <t>11                          text</t>
-  </si>
-  <si>
-    <t>12                        speech</t>
+    <t>9                       sequence</t>
+  </si>
+  <si>
+    <t>10                       english</t>
+  </si>
+  <si>
+    <t>11                     attention</t>
+  </si>
+  <si>
+    <t>12                     languages</t>
+  </si>
+  <si>
+    <t>13                   translation</t>
   </si>
   <si>
     <t>14                      language</t>
-  </si>
-  <si>
-    <t>0                        systems</t>
-  </si>
-  <si>
-    <t>1                        program</t>
-  </si>
-  <si>
-    <t>2                    researchers</t>
-  </si>
-  <si>
-    <t>3                          world</t>
-  </si>
-  <si>
-    <t>4                           work</t>
-  </si>
-  <si>
-    <t>5                         course</t>
-  </si>
-  <si>
-    <t>6                           open</t>
-  </si>
-  <si>
-    <t>7                           year</t>
-  </si>
-  <si>
-    <t>8                       students</t>
-  </si>
-  <si>
-    <t>9                        science</t>
-  </si>
-  <si>
-    <t>10                      computer</t>
-  </si>
-  <si>
-    <t>12                           new</t>
-  </si>
-  <si>
-    <t>13                    university</t>
-  </si>
-  <si>
-    <t>14                      research</t>
-  </si>
-  <si>
-    <t>0                          state</t>
-  </si>
-  <si>
-    <t>2                    performance</t>
-  </si>
-  <si>
-    <t>3                        control</t>
-  </si>
-  <si>
-    <t>4                          learn</t>
-  </si>
-  <si>
-    <t>5                          based</t>
-  </si>
-  <si>
-    <t>6                           data</t>
-  </si>
-  <si>
-    <t>7                    environment</t>
-  </si>
-  <si>
-    <t>9                           task</t>
-  </si>
-  <si>
-    <t>10                         tasks</t>
-  </si>
-  <si>
-    <t>11                         model</t>
-  </si>
-  <si>
-    <t>12                         world</t>
-  </si>
-  <si>
-    <t>13                          real</t>
   </si>
 </sst>
 </file>
@@ -873,22 +879,22 @@
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J2" t="s">
         <v>139</v>
@@ -905,25 +911,25 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J3" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -937,25 +943,25 @@
         <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -969,25 +975,25 @@
         <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G5" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I5" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="J5" t="s">
-        <v>141</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1001,19 +1007,19 @@
         <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I6" t="s">
         <v>129</v>
@@ -1033,19 +1039,19 @@
         <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I7" t="s">
         <v>130</v>
@@ -1065,19 +1071,19 @@
         <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="H8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I8" t="s">
         <v>131</v>
@@ -1097,22 +1103,22 @@
         <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I9" t="s">
-        <v>132</v>
+        <v>17</v>
       </c>
       <c r="J9" t="s">
         <v>145</v>
@@ -1129,25 +1135,25 @@
         <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F10" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G10" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J10" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1161,25 +1167,25 @@
         <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F11" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G11" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1193,25 +1199,25 @@
         <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F12" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G12" t="s">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1222,28 +1228,28 @@
         <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F13" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I13" t="s">
-        <v>36</v>
+        <v>135</v>
       </c>
       <c r="J13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1254,28 +1260,28 @@
         <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F14" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I14" t="s">
         <v>136</v>
       </c>
       <c r="J14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1286,28 +1292,28 @@
         <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F15" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H15" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="I15" t="s">
         <v>137</v>
       </c>
       <c r="J15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1318,28 +1324,28 @@
         <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F16" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H16" t="s">
-        <v>124</v>
+        <v>24</v>
       </c>
       <c r="I16" t="s">
         <v>138</v>
       </c>
       <c r="J16" t="s">
-        <v>95</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
